--- a/TestCases/Login Tests.xlsx
+++ b/TestCases/Login Tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>4. The user should not be logged in. They should see an error message saying that their login information is incorrect.
 7. The user should not be logged in. They should see an error message saying that their login information is incorrect.</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +509,9 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -519,6 +525,9 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
